--- a/test/xwf-data-tool/res/test.xlsx
+++ b/test/xwf-data-tool/res/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="福田" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582">
   <si>
     <t>招生学校</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>11</t>
     </r>
     <r>
@@ -3404,6 +3410,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>49</t>
     </r>
     <r>
@@ -8140,18 +8152,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
       <t>103</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -8161,7 +8167,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -8170,7 +8176,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -9836,6 +9842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>93</t>
     </r>
     <r>
@@ -10112,6 +10124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>长城花园（长城大厦</t>
     </r>
     <r>
@@ -12012,68 +12030,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">东滨华苑
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">海晖大厦
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">海映山庄
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">后海村
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">后海海逸苑
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后海花园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
+      <t>东滨华苑
+海晖大厦
+海映山庄
+后海村
+后海海逸苑
+后海花园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -12082,7 +12049,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -12091,7 +12058,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -12100,116 +12067,26 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">栋
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">后海名苑居
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">后海统建楼
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">金海岸
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">京光海景大厦
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">矩建大厦
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">蓝海上城
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">龙滨花园
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">龙城花园
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">南海花园
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>南油生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋
+后海名苑居
+后海统建楼
+金海岸
+京光海景大厦
+矩建大厦
+蓝海上城
+龙滨花园
+龙城花园
+南海花园
+南油生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -12218,26 +12095,17 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">区
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>南油生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区
+南油生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -12246,121 +12114,22 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">区
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">现代城梦想家园
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新一代国际公寓
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">信和自由广场
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">雅仕荔景苑
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">怡海花园
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">后海海逸苑
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">深蓝公寓
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">粤海小区
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">粤海大厦
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">华英大厦
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信泽南乐雅苑</t>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区
+现代城梦想家园
+新一代国际公寓
+信和自由广场
+雅仕荔景苑
+怡海花园
+后海海逸苑
+深蓝公寓
+粤海小区
+粤海大厦
+华英大厦
+信泽南乐雅苑</t>
     </r>
   </si>
   <si>
@@ -13710,6 +13479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323232"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科苑居</t>
     </r>
     <r>
@@ -15907,6 +15682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>美思苑大厦</t>
     </r>
     <r>
@@ -16377,6 +16158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>雅翠轩,仙湖公馆,依仙湖居,仙桐馨苑,仙湖山庄,</t>
     </r>
     <r>
@@ -16549,7 +16336,7 @@
     <t xml:space="preserve"> 龙华新区观瀾街道新田小学</t>
   </si>
   <si>
-    <t>新田社区、樟坑径社区</t>
+    <t>新田社区，樟坑径社区</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区民治街道行知小学</t>
@@ -16632,7 +16419,7 @@
     <t xml:space="preserve"> 龙华新区观瀾街道库坑小学</t>
   </si>
   <si>
-    <t>库坑社区、黎光社区</t>
+    <t>库坑社区，黎光社区</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区民治街道上芬小学</t>
@@ -16656,19 +16443,19 @@
     <t xml:space="preserve"> 龙华新区观澜街道大水坑小学</t>
   </si>
   <si>
-    <t>章阁社区、大水坑社区</t>
+    <t>章阁社区，大水坑社区</t>
   </si>
   <si>
     <t>龙华新区鹭湖学校（小学部）</t>
   </si>
   <si>
-    <t>观城社区大航居委会（观澜河以东）、大和居委会、仁山智水</t>
+    <t>观城社区大航居委会（观澜河以东），大和居委会，仁山智水</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区观澜街道中心小学</t>
   </si>
   <si>
-    <t>新澜社区、观城社区马坜、横坑、岗头居委会</t>
+    <t>新澜社区，观城社区马坜，横坑，岗头居委会</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区龙华街道墩背小学</t>
@@ -16716,218 +16503,14 @@
     <t xml:space="preserve"> 龙华新区大浪街道高峰学校小学部</t>
   </si>
   <si>
-    <t>高峰社区工作站（含鹊山社区居委会、上早社区居委会、下早社区居委会、赤岭头社区居委会、元芬社区居委会、陶吓社区居委会）、龙胜社区工作站（含龙胜社区居委会）</t>
+    <t>高峰社区工作站（含鹊山社区居委会、上早社区居委会、下早社区居委会、赤岭头社区居委会、元芬社区居委会、陶吓社区居委会），龙胜社区工作站（含龙胜社区居委会）</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区同胜学校(小学部)</t>
   </si>
   <si>
-    <t>同胜社区工作站(含上横朗社区居委会、下横朗社区居委会、赖屋山社区居委会、谭罗社区居委会、三合社区居委会）、水围社区居委会</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区龙华街道中心小学</t>
-  </si>
-  <si>
-    <t>大浪南路、东环一路以西，和平路以北，人民路以西，建设西路以北范围。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道第二小学</t>
-  </si>
-  <si>
-    <t>福民社区丹湖居委会、茜坑社区、观城社区大航居委会（观澜河以西）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区大浪街道大浪实验学校（小学部）</t>
-  </si>
-  <si>
-    <t>大浪社区工作站（含石凹社区居委会、新围社区居委会、下岭排社区居委会、上岭排社区居委会、黄麻埔社区居委会、罗屋围社区居委会）、浪口社区居委会</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观瀾街道广培小学</t>
-  </si>
-  <si>
-    <t>牛湖社区、大水田社区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道振能小学</t>
-  </si>
-  <si>
-    <t>松元厦社区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道文成学校</t>
-  </si>
-  <si>
-    <t>文成</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区龙丰学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道锦明学校</t>
-  </si>
-  <si>
-    <t>锦明</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道东王实验学校</t>
-  </si>
-  <si>
-    <t>东王</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 展华实验学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道新智学校</t>
-  </si>
-  <si>
-    <t>新智</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区大浪街道大浪爱义学校</t>
-  </si>
-  <si>
-    <t>爱义</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道文峰小学</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区大浪胜华小学</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观瀾街道桂花小学</t>
-  </si>
-  <si>
-    <t>桂花社区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区民治街道民乐小学</t>
-  </si>
-  <si>
-    <t>民乐</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区龙华中英文实验学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区三联永恒学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道万安学校</t>
-  </si>
-  <si>
-    <t>万安</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区大浪街道元芬小学</t>
-  </si>
-  <si>
-    <t>元芬</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区民治街道东星小学</t>
-  </si>
-  <si>
-    <t>东星小学</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道爱孚实验学校</t>
-  </si>
-  <si>
-    <t>爱孚</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道精英学校</t>
-  </si>
-  <si>
-    <t>精英</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道博文学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区民治街道牛栏前学校</t>
-  </si>
-  <si>
-    <t>民治</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜街道新园学校</t>
-  </si>
-  <si>
-    <t>新园</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区新华中学</t>
-  </si>
-  <si>
-    <t>人民路以东，和平路以南，东环一路以东，三联路以南，东环二路以东，龙观东路以南范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区丹堤实验学校（初中部）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区同胜学校(初中部)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜中学</t>
-  </si>
-  <si>
-    <t>松元厦社区、牛湖社区、大水田社区、君子布社区、观城社区岗头居委会、新澜社区桂澜居委会</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区高峰学校(初中部)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区福苑学校(初中部)</t>
-  </si>
-  <si>
-    <t>大水坑社区、章阁社区、库坑社区、黎光社区、福安雅苑</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区观澜二中</t>
-  </si>
-  <si>
-    <t>福民社区、茜坑社区、观城社区大和、马坜、横坑、大航居委会、桂花社区、新田社区、樟坑径社区、新澜社区翠澜、大布巷居委会</t>
-  </si>
-  <si>
-    <t>龙华中英文</t>
-  </si>
-  <si>
-    <t>六一</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙华新区玉龙学校(初中部)</t>
-  </si>
-  <si>
-    <t>三联永恒</t>
-  </si>
-  <si>
-    <t>博文</t>
-  </si>
-  <si>
-    <t>牛栏前</t>
-  </si>
-  <si>
-    <t>龙丰</t>
-  </si>
-  <si>
-    <t>展华</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>龙华新区大浪实验学校</t>
+    <r>
+      <t>同胜社区工作站</t>
     </r>
     <r>
       <rPr>
@@ -16945,8 +16528,202 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>初中部</t>
-    </r>
+      <t>含上横朗社区居委会、下横朗社区居委会、赖屋山社区居委会、谭罗社区居委会、三合社区居委会），水围社区居委会</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区龙华街道中心小学</t>
+  </si>
+  <si>
+    <t>大浪南路、东环一路以西、和平路以北、人民路以西、建设西路以北范围。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道第二小学</t>
+  </si>
+  <si>
+    <t>福民社区丹湖居委会，茜坑社区，观城社区大航居委会（观澜河以西）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区大浪街道大浪实验学校（小学部）</t>
+  </si>
+  <si>
+    <t>大浪社区工作站（含石凹社区居委会、新围社区居委会、下岭排社区居委会、上岭排社区居委会、黄麻埔社区居委会、罗屋围社区居委会），浪口社区居委会</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观瀾街道广培小学</t>
+  </si>
+  <si>
+    <t>牛湖社区，大水田社区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道振能小学</t>
+  </si>
+  <si>
+    <t>松元厦社区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道文成学校</t>
+  </si>
+  <si>
+    <t>文成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区龙丰学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道锦明学校</t>
+  </si>
+  <si>
+    <t>锦明</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道东王实验学校</t>
+  </si>
+  <si>
+    <t>东王</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 展华实验学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道新智学校</t>
+  </si>
+  <si>
+    <t>新智</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区大浪街道大浪爱义学校</t>
+  </si>
+  <si>
+    <t>爱义</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道文峰小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区大浪胜华小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观瀾街道桂花小学</t>
+  </si>
+  <si>
+    <t>桂花社区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区民治街道民乐小学</t>
+  </si>
+  <si>
+    <t>民乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区龙华中英文实验学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区三联永恒学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道万安学校</t>
+  </si>
+  <si>
+    <t>万安</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区大浪街道元芬小学</t>
+  </si>
+  <si>
+    <t>元芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区民治街道东星小学</t>
+  </si>
+  <si>
+    <t>东星小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道爱孚实验学校</t>
+  </si>
+  <si>
+    <t>爱孚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道精英学校</t>
+  </si>
+  <si>
+    <t>精英</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道博文学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区民治街道牛栏前学校</t>
+  </si>
+  <si>
+    <t>民治</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜街道新园学校</t>
+  </si>
+  <si>
+    <t>新园</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区新华中学</t>
+  </si>
+  <si>
+    <t>人民路以东、和平路以南、东环一路以东、三联路以南、东环二路以东、龙观东路以南范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区丹堤实验学校（初中部）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区同胜学校(初中部)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜中学</t>
+  </si>
+  <si>
+    <t>松元厦社区，牛湖社区，大水田社区，君子布社区，观城社区岗头居委会，新澜社区桂澜居委会</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区高峰学校(初中部)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区福苑学校(初中部)</t>
+  </si>
+  <si>
+    <t>大水坑社区，章阁社区，库坑社区，黎光社区，福安雅苑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区观澜二中</t>
+  </si>
+  <si>
+    <t>福民社区，茜坑社区，观城社区大和，马坜，横坑，大航居委会，桂花社区，新田社区，樟坑径社区，新澜社区翠澜，大布巷居委会</t>
+  </si>
+  <si>
+    <t>龙华中英文</t>
+  </si>
+  <si>
+    <t>六一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙华新区玉龙学校(初中部)</t>
+  </si>
+  <si>
+    <t>三联永恒</t>
+  </si>
+  <si>
+    <t>博文</t>
+  </si>
+  <si>
+    <t>牛栏前</t>
+  </si>
+  <si>
+    <t>龙丰</t>
+  </si>
+  <si>
+    <t>展华</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -16954,11 +16731,6 @@
         <rFont val="Times"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -16968,7 +16740,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>龙华新区潜龙学校</t>
+      <t>龙华新区大浪实验学校</t>
     </r>
     <r>
       <rPr>
@@ -16999,13 +16771,60 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙华新区潜龙学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初中部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>平南铁路以南、梅龙路以东、玉龙路以南、新区大道以东、白龙路以南、金龙路以东、梅观路以西、民乐路以北的范围</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区龙华中学</t>
   </si>
   <si>
-    <t>人民路以西，和平路以北，东环一路以西，三联路以北，东环二路以西，龙观东路以北范围</t>
+    <t>人民路以西、和平路以北、东环一路以西，三联路以北、东环二路以西、龙观东路以北范围</t>
   </si>
   <si>
     <t>新园学校</t>
@@ -19734,16 +19553,64 @@
     <t>龙华新区</t>
   </si>
   <si>
+    <t>新田社区、樟坑径社区</t>
+  </si>
+  <si>
     <t>梅龙路以东、布龙路以北范围及锦绣江南小区（1-6类） 风和日丽、丰润花园、苹果园、新华城（1-2类）</t>
   </si>
   <si>
     <t>锦华实验</t>
   </si>
   <si>
+    <t>库坑社区、黎光社区</t>
+  </si>
+  <si>
+    <t>章阁社区、大水坑社区</t>
+  </si>
+  <si>
+    <t>观城社区大航居委会（观澜河以东）、大和居委会、仁山智水</t>
+  </si>
+  <si>
+    <t>新澜社区、观城社区马坜、横坑、岗头居委会</t>
+  </si>
+  <si>
+    <t>高峰社区工作站（含鹊山社区居委会、上早社区居委会、下早社区居委会、赤岭头社区居委会、元芬社区居委会、陶吓社区居委会）、龙胜社区工作站（含龙胜社区居委会）</t>
+  </si>
+  <si>
+    <t>同胜社区工作站(含上横朗社区居委会、下横朗社区居委会、赖屋山社区居委会、谭罗社区居委会、三合社区居委会）、水围社区居委会</t>
+  </si>
+  <si>
+    <t>大浪南路、东环一路以西，和平路以北，人民路以西，建设西路以北范围。</t>
+  </si>
+  <si>
+    <t>福民社区丹湖居委会、茜坑社区、观城社区大航居委会（观澜河以西）</t>
+  </si>
+  <si>
+    <t>大浪社区工作站（含石凹社区居委会、新围社区居委会、下岭排社区居委会、上岭排社区居委会、黄麻埔社区居委会、罗屋围社区居委会）、浪口社区居委会</t>
+  </si>
+  <si>
+    <t>牛湖社区、大水田社区</t>
+  </si>
+  <si>
+    <t>人民路以东，和平路以南，东环一路以东，三联路以南，东环二路以东，龙观东路以南范围</t>
+  </si>
+  <si>
+    <t>松元厦社区、牛湖社区、大水田社区、君子布社区、观城社区岗头居委会、新澜社区桂澜居委会</t>
+  </si>
+  <si>
+    <t>大水坑社区、章阁社区、库坑社区、黎光社区、福安雅苑</t>
+  </si>
+  <si>
+    <t>福民社区、茜坑社区、观城社区大和、马坜、横坑、大航居委会、桂花社区、新田社区、樟坑径社区、新澜社区翠澜、大布巷居委会</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 龙华新区大浪实验学校(初中部)</t>
   </si>
   <si>
     <t xml:space="preserve"> 龙华新区潜龙学校(初中部)</t>
+  </si>
+  <si>
+    <t>人民路以西，和平路以北，东环一路以西，三联路以北，东环二路以西，龙观东路以北范围</t>
   </si>
   <si>
     <t>辖区</t>
@@ -21626,12 +21493,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="85">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -21956,12 +21823,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -21999,8 +21860,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -22015,72 +21919,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -22098,22 +21940,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22128,15 +21980,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22285,7 +22146,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22297,7 +22254,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22309,67 +22296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22381,79 +22308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24192,11 +24053,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -24218,39 +24142,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -24259,184 +24150,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="125" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="128" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="21" borderId="125" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="122" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="123" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="16" borderId="129" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="16" borderId="125" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="32" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="123" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="32" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="35" borderId="128" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="127" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="129" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25184,19 +25045,19 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -25214,7 +25075,7 @@
     <xf numFmtId="49" fontId="32" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -25223,13 +25084,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25712,7 +25573,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -26310,7 +26171,7 @@
       <c r="A74" s="260" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="258" t="s">
+      <c r="B74" s="259" t="s">
         <v>147</v>
       </c>
     </row>
@@ -27337,7 +27198,7 @@
         <v>426</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>427</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="107">
         <v>0</v>
@@ -27355,7 +27216,7 @@
         <v>428</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="107">
         <v>0</v>
@@ -27391,7 +27252,7 @@
         <v>432</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="107">
@@ -27425,7 +27286,7 @@
         <v>435</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>436</v>
+        <v>1187</v>
       </c>
       <c r="C15" s="107">
         <v>0</v>
@@ -27497,7 +27358,7 @@
         <v>443</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>444</v>
+        <v>1188</v>
       </c>
       <c r="C19" s="107">
         <v>0</v>
@@ -27515,7 +27376,7 @@
         <v>445</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>446</v>
+        <v>1189</v>
       </c>
       <c r="C20" s="106"/>
       <c r="D20" s="107">
@@ -27531,7 +27392,7 @@
         <v>447</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>448</v>
+        <v>1190</v>
       </c>
       <c r="C21" s="107">
         <v>0</v>
@@ -27681,7 +27542,7 @@
         <v>463</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>464</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="107">
         <v>0</v>
@@ -27699,7 +27560,7 @@
         <v>465</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>466</v>
+        <v>1192</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="107">
@@ -27715,7 +27576,7 @@
         <v>467</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>468</v>
+        <v>1193</v>
       </c>
       <c r="C32" s="107">
         <v>0</v>
@@ -27733,7 +27594,7 @@
         <v>469</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>470</v>
+        <v>1194</v>
       </c>
       <c r="C33" s="107">
         <v>0</v>
@@ -27751,7 +27612,7 @@
         <v>471</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>472</v>
+        <v>1195</v>
       </c>
       <c r="C34" s="107">
         <v>0</v>
@@ -27769,7 +27630,7 @@
         <v>473</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>474</v>
+        <v>1196</v>
       </c>
       <c r="C35" s="107">
         <v>0</v>
@@ -28169,7 +28030,7 @@
         <v>512</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>513</v>
+        <v>1197</v>
       </c>
       <c r="C60" s="107">
         <v>0</v>
@@ -28203,7 +28064,7 @@
         <v>515</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>466</v>
+        <v>1192</v>
       </c>
       <c r="C62" s="106"/>
       <c r="D62" s="107">
@@ -28219,7 +28080,7 @@
         <v>516</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>517</v>
+        <v>1198</v>
       </c>
       <c r="C63" s="107">
         <v>0</v>
@@ -28237,7 +28098,7 @@
         <v>518</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>464</v>
+        <v>1191</v>
       </c>
       <c r="C64" s="107">
         <v>0</v>
@@ -28255,7 +28116,7 @@
         <v>519</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>520</v>
+        <v>1199</v>
       </c>
       <c r="C65" s="106"/>
       <c r="D65" s="107">
@@ -28271,7 +28132,7 @@
         <v>521</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>522</v>
+        <v>1200</v>
       </c>
       <c r="C66" s="107">
         <v>0</v>
@@ -28535,10 +28396,10 @@
     </row>
     <row r="85" ht="177" customHeight="1" spans="1:6">
       <c r="A85" s="105" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>472</v>
+        <v>1195</v>
       </c>
       <c r="C85" s="107">
         <v>0</v>
@@ -28569,7 +28430,7 @@
     </row>
     <row r="87" ht="143.1" customHeight="1" spans="1:6">
       <c r="A87" s="105" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="B87" s="105" t="s">
         <v>533</v>
@@ -28590,7 +28451,7 @@
         <v>534</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>535</v>
+        <v>1203</v>
       </c>
       <c r="C88" s="107">
         <v>0</v>
@@ -28629,19 +28490,19 @@
     </row>
     <row r="91" ht="57.95" customHeight="1" spans="1:6">
       <c r="A91" s="112" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="B91" s="112" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="C91" s="112" t="s">
         <v>900</v>
       </c>
       <c r="D91" s="112" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="E91" s="112" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="F91" s="112" t="s">
         <v>900</v>
@@ -28649,10 +28510,10 @@
     </row>
     <row r="92" ht="57.95" customHeight="1" spans="1:6">
       <c r="A92" s="112" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="B92" s="113" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="C92" s="114">
         <v>29831505</v>
@@ -28661,7 +28522,7 @@
         <v>418</v>
       </c>
       <c r="E92" s="113" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="F92" s="114">
         <v>27706432</v>
@@ -28670,14 +28531,14 @@
     <row r="93" ht="57.95" customHeight="1" spans="1:6">
       <c r="A93" s="115"/>
       <c r="B93" s="113" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="C93" s="113" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="D93" s="115"/>
       <c r="E93" s="113" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
       <c r="F93" s="114">
         <v>27740161</v>
@@ -28686,30 +28547,30 @@
     <row r="94" ht="57.95" customHeight="1" spans="1:6">
       <c r="A94" s="115"/>
       <c r="B94" s="113" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="C94" s="114">
         <v>27994757</v>
       </c>
       <c r="D94" s="115"/>
       <c r="E94" s="113" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="F94" s="113" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="95" ht="57.95" customHeight="1" spans="1:6">
       <c r="A95" s="115"/>
       <c r="B95" s="113" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="C95" s="114">
         <v>29836852</v>
       </c>
       <c r="D95" s="115"/>
       <c r="E95" s="113" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="F95" s="114">
         <v>28123620</v>
@@ -28718,14 +28579,14 @@
     <row r="96" ht="57.95" customHeight="1" spans="1:6">
       <c r="A96" s="115"/>
       <c r="B96" s="113" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="C96" s="114">
         <v>28017547</v>
       </c>
       <c r="D96" s="115"/>
       <c r="E96" s="113" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="F96" s="114">
         <v>28131195</v>
@@ -28736,7 +28597,7 @@
         <v>509</v>
       </c>
       <c r="B97" s="113" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="C97" s="114">
         <v>28068378</v>
@@ -28745,7 +28606,7 @@
         <v>420</v>
       </c>
       <c r="E97" s="113" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="F97" s="114">
         <v>23491087</v>
@@ -28754,14 +28615,14 @@
     <row r="98" ht="57.95" customHeight="1" spans="1:6">
       <c r="A98" s="115"/>
       <c r="B98" s="113" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="C98" s="114">
         <v>29000629</v>
       </c>
       <c r="D98" s="115"/>
       <c r="E98" s="113" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="F98" s="114">
         <v>27742396</v>
@@ -28770,14 +28631,14 @@
     <row r="99" ht="57.95" customHeight="1" spans="1:6">
       <c r="A99" s="115"/>
       <c r="B99" s="113" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="C99" s="114">
         <v>82590723</v>
       </c>
       <c r="D99" s="115"/>
       <c r="E99" s="113" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="F99" s="114">
         <v>23761521</v>
@@ -28786,16 +28647,16 @@
     <row r="100" ht="57.95" customHeight="1" spans="1:6">
       <c r="A100" s="115"/>
       <c r="B100" s="113" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="C100" s="114">
         <v>29107723</v>
       </c>
       <c r="D100" s="113" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="E100" s="113" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="F100" s="114">
         <v>81701296</v>
@@ -28804,30 +28665,30 @@
     <row r="101" ht="57.95" customHeight="1" spans="1:6">
       <c r="A101" s="115"/>
       <c r="B101" s="113" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="C101" s="114">
         <v>28196124</v>
       </c>
       <c r="D101" s="115"/>
       <c r="E101" s="113" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="F101" s="113" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="102" ht="57.95" customHeight="1" spans="1:6">
       <c r="A102" s="115"/>
       <c r="B102" s="113" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="C102" s="114">
         <v>28068378</v>
       </c>
       <c r="D102" s="115"/>
       <c r="E102" s="113" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="F102" s="114">
         <v>29047592</v>
@@ -28836,14 +28697,14 @@
     <row r="103" ht="57.95" customHeight="1" spans="1:6">
       <c r="A103" s="115"/>
       <c r="B103" s="113" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="C103" s="116">
         <v>23736235</v>
       </c>
       <c r="D103" s="115"/>
       <c r="E103" s="113" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="F103" s="114">
         <v>29730204</v>
@@ -28852,14 +28713,14 @@
     <row r="104" ht="57.95" customHeight="1" spans="1:6">
       <c r="A104" s="115"/>
       <c r="B104" s="113" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="C104" s="114">
         <v>83720647</v>
       </c>
       <c r="D104" s="115"/>
       <c r="E104" s="113" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="F104" s="114">
         <v>81701296</v>
@@ -28868,16 +28729,16 @@
     <row r="105" ht="57.95" customHeight="1" spans="1:6">
       <c r="A105" s="115"/>
       <c r="B105" s="113" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="C105" s="114">
         <v>29654305</v>
       </c>
       <c r="D105" s="113" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="E105" s="113" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="F105" s="114">
         <v>28081759</v>
@@ -28886,14 +28747,14 @@
     <row r="106" ht="57.95" customHeight="1" spans="1:6">
       <c r="A106" s="115"/>
       <c r="B106" s="113" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
       <c r="C106" s="114">
         <v>29488335</v>
       </c>
       <c r="D106" s="115"/>
       <c r="E106" s="113" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="F106" s="114">
         <v>28084791</v>
@@ -28902,14 +28763,14 @@
     <row r="107" ht="57.95" customHeight="1" spans="1:6">
       <c r="A107" s="115"/>
       <c r="B107" s="113" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="C107" s="114">
         <v>18098908963</v>
       </c>
       <c r="D107" s="115"/>
       <c r="E107" s="113" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="F107" s="114">
         <v>28161014</v>
@@ -28920,17 +28781,17 @@
         <v>418</v>
       </c>
       <c r="B108" s="113" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="C108" s="114">
         <v>28106221</v>
       </c>
       <c r="D108" s="115"/>
       <c r="E108" s="113" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -28981,532 +28842,532 @@
         <v>597</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="D2" s="92"/>
       <c r="E2" s="93"/>
     </row>
     <row r="3" ht="161.1" customHeight="1" spans="1:5">
       <c r="A3" s="94" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
       <c r="B3" s="95" t="s">
         <v>599</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="D3" s="92"/>
       <c r="E3" s="97"/>
     </row>
     <row r="4" ht="77.1" customHeight="1" spans="1:5">
       <c r="A4" s="94" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="95" t="s">
         <v>601</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="97"/>
     </row>
     <row r="5" ht="189" customHeight="1" spans="1:5">
       <c r="A5" s="94" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="B5" s="95" t="s">
         <v>603</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="D5" s="92"/>
       <c r="E5" s="97"/>
     </row>
     <row r="6" ht="119.1" customHeight="1" spans="1:5">
       <c r="A6" s="94" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>605</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="97"/>
     </row>
     <row r="7" ht="245.1" customHeight="1" spans="1:5">
       <c r="A7" s="94" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>607</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="97"/>
     </row>
     <row r="8" ht="315" customHeight="1" spans="1:5">
       <c r="A8" s="94" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
       <c r="B8" s="95" t="s">
         <v>609</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D8" s="92"/>
       <c r="E8" s="97"/>
     </row>
     <row r="9" ht="147" customHeight="1" spans="1:5">
       <c r="A9" s="94" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="95" t="s">
         <v>611</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="97"/>
     </row>
     <row r="10" ht="48.95" customHeight="1" spans="1:5">
       <c r="A10" s="94" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="95" t="s">
         <v>613</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="97"/>
     </row>
     <row r="11" ht="48.95" customHeight="1" spans="1:5">
       <c r="A11" s="94" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="B11" s="95" t="s">
         <v>615</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="D11" s="92"/>
       <c r="E11" s="97"/>
     </row>
     <row r="12" ht="48.95" customHeight="1" spans="1:5">
       <c r="A12" s="94" t="s">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="B12" s="95" t="s">
         <v>617</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="97"/>
     </row>
     <row r="13" ht="77.1" customHeight="1" spans="1:5">
       <c r="A13" s="94" t="s">
-        <v>1251</v>
+        <v>1267</v>
       </c>
       <c r="B13" s="95" t="s">
         <v>619</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="97"/>
     </row>
     <row r="14" ht="105" customHeight="1" spans="1:5">
       <c r="A14" s="94" t="s">
-        <v>1252</v>
+        <v>1268</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>621</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>1253</v>
+        <v>1269</v>
       </c>
       <c r="D14" s="92"/>
       <c r="E14" s="97"/>
     </row>
     <row r="15" ht="48.95" customHeight="1" spans="1:5">
       <c r="A15" s="94" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
       <c r="B15" s="95" t="s">
         <v>623</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D15" s="92"/>
       <c r="E15" s="97"/>
     </row>
     <row r="16" ht="63" customHeight="1" spans="1:5">
       <c r="A16" s="94" t="s">
-        <v>1255</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="95" t="s">
         <v>625</v>
       </c>
       <c r="C16" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="97"/>
     </row>
     <row r="17" ht="48.95" customHeight="1" spans="1:5">
       <c r="A17" s="94" t="s">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>627</v>
       </c>
       <c r="C17" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D17" s="92"/>
       <c r="E17" s="97"/>
     </row>
     <row r="18" ht="48.95" customHeight="1" spans="1:5">
       <c r="A18" s="94" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="B18" s="95" t="s">
         <v>629</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1258</v>
+        <v>1274</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="97"/>
     </row>
     <row r="19" ht="105" customHeight="1" spans="1:5">
       <c r="A19" s="94" t="s">
-        <v>1259</v>
+        <v>1275</v>
       </c>
       <c r="B19" s="95" t="s">
         <v>631</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="97"/>
     </row>
     <row r="20" ht="119.1" customHeight="1" spans="1:5">
       <c r="A20" s="94" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>633</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="97"/>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:5">
       <c r="A21" s="94" t="s">
-        <v>1261</v>
+        <v>1277</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>635</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D21" s="92"/>
       <c r="E21" s="97"/>
     </row>
     <row r="22" ht="48.95" customHeight="1" spans="1:5">
       <c r="A22" s="94" t="s">
-        <v>1262</v>
+        <v>1278</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>637</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D22" s="92"/>
       <c r="E22" s="97"/>
     </row>
     <row r="23" ht="189" customHeight="1" spans="1:5">
       <c r="A23" s="94" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="B23" s="95" t="s">
         <v>639</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="97"/>
     </row>
     <row r="24" ht="48.95" customHeight="1" spans="1:5">
       <c r="A24" s="94" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="B24" s="95" t="s">
         <v>641</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="D24" s="92"/>
       <c r="E24" s="97"/>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:5">
       <c r="A25" s="94" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
       <c r="B25" s="95" t="s">
         <v>643</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D25" s="92"/>
       <c r="E25" s="97"/>
     </row>
     <row r="26" ht="77.1" customHeight="1" spans="1:5">
       <c r="A26" s="94" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>645</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D26" s="92"/>
       <c r="E26" s="97"/>
     </row>
     <row r="27" ht="105" customHeight="1" spans="1:5">
       <c r="A27" s="94" t="s">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="B27" s="95" t="s">
         <v>647</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="97"/>
     </row>
     <row r="28" ht="161.1" customHeight="1" spans="1:5">
       <c r="A28" s="94" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="B28" s="95" t="s">
         <v>649</v>
       </c>
       <c r="C28" s="96" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="D28" s="92"/>
       <c r="E28" s="97"/>
     </row>
     <row r="29" ht="342.95" customHeight="1" spans="1:5">
       <c r="A29" s="94" t="s">
-        <v>1271</v>
+        <v>1287</v>
       </c>
       <c r="B29" s="95" t="s">
         <v>651</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>1272</v>
+        <v>1288</v>
       </c>
       <c r="D29" s="92"/>
       <c r="E29" s="97"/>
     </row>
     <row r="30" ht="174.95" customHeight="1" spans="1:5">
       <c r="A30" s="94" t="s">
-        <v>1273</v>
+        <v>1289</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>653</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D30" s="92"/>
       <c r="E30" s="97"/>
     </row>
     <row r="31" ht="105" customHeight="1" spans="1:5">
       <c r="A31" s="94" t="s">
-        <v>1274</v>
+        <v>1290</v>
       </c>
       <c r="B31" s="95" t="s">
         <v>655</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D31" s="92"/>
       <c r="E31" s="97"/>
     </row>
     <row r="32" ht="203.1" customHeight="1" spans="1:5">
       <c r="A32" s="94" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="B32" s="95" t="s">
         <v>657</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="D32" s="92"/>
       <c r="E32" s="97"/>
     </row>
     <row r="33" ht="77.1" customHeight="1" spans="1:5">
       <c r="A33" s="94" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="B33" s="95" t="s">
         <v>659</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="D33" s="92"/>
       <c r="E33" s="97"/>
     </row>
     <row r="34" ht="77.1" customHeight="1" spans="1:5">
       <c r="A34" s="94" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="B34" s="95" t="s">
         <v>661</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D34" s="92"/>
       <c r="E34" s="97"/>
     </row>
     <row r="35" ht="105" customHeight="1" spans="1:5">
       <c r="A35" s="94" t="s">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="B35" s="95" t="s">
         <v>663</v>
       </c>
       <c r="C35" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="97"/>
     </row>
     <row r="36" ht="48.95" customHeight="1" spans="1:5">
       <c r="A36" s="94" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>665</v>
       </c>
       <c r="C36" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D36" s="92"/>
       <c r="E36" s="97"/>
     </row>
     <row r="37" ht="48.95" customHeight="1" spans="1:5">
       <c r="A37" s="94" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="B37" s="98"/>
       <c r="C37" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D37" s="92"/>
       <c r="E37" s="97"/>
     </row>
     <row r="38" ht="90.95" customHeight="1" spans="1:5">
       <c r="A38" s="94" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="B38" s="95" t="s">
         <v>668</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="D38" s="92"/>
       <c r="E38" s="97"/>
     </row>
     <row r="39" ht="48.95" customHeight="1" spans="1:5">
       <c r="A39" s="94" t="s">
-        <v>1283</v>
+        <v>1299</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>670</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D39" s="92"/>
       <c r="E39" s="97"/>
     </row>
     <row r="40" ht="399" customHeight="1" spans="1:5">
       <c r="A40" s="94" t="s">
-        <v>1284</v>
+        <v>1300</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="D40" s="92"/>
       <c r="E40" s="97"/>
     </row>
     <row r="41" ht="203.1" customHeight="1" spans="1:5">
       <c r="A41" s="94" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="B41" s="95" t="s">
         <v>674</v>
       </c>
       <c r="C41" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D41" s="92"/>
       <c r="E41" s="97"/>
     </row>
     <row r="42" ht="161.1" customHeight="1" spans="1:5">
       <c r="A42" s="94" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="B42" s="95" t="s">
         <v>676</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D42" s="92"/>
       <c r="E42" s="97"/>
     </row>
     <row r="43" ht="63" customHeight="1" spans="1:5">
       <c r="A43" s="94" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="B43" s="94" t="s">
         <v>678</v>
@@ -29530,2079 +29391,2079 @@
         <v>597</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="D45" s="92"/>
       <c r="E45" s="97"/>
     </row>
     <row r="46" ht="48.95" customHeight="1" spans="1:5">
       <c r="A46" s="94" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="B46" s="95" t="s">
         <v>679</v>
       </c>
       <c r="C46" s="96" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
       <c r="D46" s="92"/>
       <c r="E46" s="97"/>
     </row>
     <row r="47" ht="63" customHeight="1" spans="1:5">
       <c r="A47" s="94" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="B47" s="95" t="s">
         <v>681</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D47" s="92"/>
       <c r="E47" s="97"/>
     </row>
     <row r="48" ht="189" customHeight="1" spans="1:5">
       <c r="A48" s="94" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="B48" s="95" t="s">
         <v>682</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="D48" s="92"/>
       <c r="E48" s="97"/>
     </row>
     <row r="49" ht="119.1" customHeight="1" spans="1:5">
       <c r="A49" s="94" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="B49" s="95" t="s">
         <v>684</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="D49" s="92"/>
       <c r="E49" s="97"/>
     </row>
     <row r="50" ht="119.1" customHeight="1" spans="1:5">
       <c r="A50" s="94" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="B50" s="95" t="s">
         <v>685</v>
       </c>
       <c r="C50" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D50" s="92"/>
       <c r="E50" s="97"/>
     </row>
     <row r="51" ht="132.95" customHeight="1" spans="1:5">
       <c r="A51" s="94" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
       <c r="B51" s="95" t="s">
         <v>686</v>
       </c>
       <c r="C51" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="97"/>
     </row>
     <row r="52" ht="315" customHeight="1" spans="1:5">
       <c r="A52" s="94" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
       <c r="B52" s="95" t="s">
         <v>687</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D52" s="92"/>
       <c r="E52" s="97"/>
     </row>
     <row r="53" ht="77.1" customHeight="1" spans="1:5">
       <c r="A53" s="94" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="B53" s="95" t="s">
         <v>689</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D53" s="92"/>
       <c r="E53" s="97"/>
     </row>
     <row r="54" ht="35.1" customHeight="1" spans="1:5">
       <c r="A54" s="94" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="B54" s="95" t="s">
         <v>691</v>
       </c>
       <c r="C54" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D54" s="92"/>
       <c r="E54" s="97"/>
     </row>
     <row r="55" ht="161.1" customHeight="1" spans="1:5">
       <c r="A55" s="94" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="B55" s="95" t="s">
         <v>692</v>
       </c>
       <c r="C55" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D55" s="92"/>
       <c r="E55" s="97"/>
     </row>
     <row r="56" ht="48.95" customHeight="1" spans="1:5">
       <c r="A56" s="94" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="B56" s="95" t="s">
         <v>613</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D56" s="92"/>
       <c r="E56" s="97"/>
     </row>
     <row r="57" ht="105" customHeight="1" spans="1:5">
       <c r="A57" s="94" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="B57" s="95" t="s">
         <v>694</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>1298</v>
+        <v>1314</v>
       </c>
       <c r="D57" s="92"/>
       <c r="E57" s="97"/>
     </row>
     <row r="58" ht="48.95" customHeight="1" spans="1:5">
       <c r="A58" s="94" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="B58" s="95" t="s">
         <v>617</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="D58" s="92"/>
       <c r="E58" s="97"/>
     </row>
     <row r="59" ht="161.1" hidden="1" customHeight="1" spans="1:5">
       <c r="A59" s="94" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="B59" s="95" t="s">
         <v>697</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
       <c r="D59" s="92"/>
       <c r="E59" s="97"/>
     </row>
     <row r="60" ht="408.95" customHeight="1" spans="1:5">
       <c r="A60" s="94" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="B60" s="95" t="s">
         <v>699</v>
       </c>
       <c r="C60" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D60" s="92"/>
       <c r="E60" s="97"/>
     </row>
     <row r="61" ht="48.95" customHeight="1" spans="1:5">
       <c r="A61" s="94" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="B61" s="95" t="s">
         <v>700</v>
       </c>
       <c r="C61" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D61" s="92"/>
       <c r="E61" s="97"/>
     </row>
     <row r="62" ht="48.95" customHeight="1" spans="1:5">
       <c r="A62" s="94" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="B62" s="95" t="s">
         <v>702</v>
       </c>
       <c r="C62" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D62" s="92"/>
       <c r="E62" s="97"/>
     </row>
     <row r="63" ht="342.95" customHeight="1" spans="1:5">
       <c r="A63" s="94" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
       <c r="B63" s="95" t="s">
         <v>704</v>
       </c>
       <c r="C63" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D63" s="92"/>
       <c r="E63" s="97"/>
     </row>
     <row r="64" ht="105" customHeight="1" spans="1:5">
       <c r="A64" s="94" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="B64" s="95" t="s">
         <v>706</v>
       </c>
       <c r="C64" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D64" s="92"/>
       <c r="E64" s="97"/>
     </row>
     <row r="65" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A65" s="94" t="s">
-        <v>1308</v>
+        <v>1324</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
       <c r="D65" s="92"/>
       <c r="E65" s="97"/>
     </row>
     <row r="66" ht="132.95" customHeight="1" spans="1:5">
       <c r="A66" s="94" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="B66" s="95" t="s">
         <v>710</v>
       </c>
       <c r="C66" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D66" s="92"/>
       <c r="E66" s="97"/>
     </row>
     <row r="67" ht="300.95" customHeight="1" spans="1:5">
       <c r="A67" s="94" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="B67" s="95" t="s">
         <v>712</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="D67" s="92"/>
       <c r="E67" s="97"/>
     </row>
     <row r="68" ht="147" customHeight="1" spans="1:5">
       <c r="A68" s="94" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="B68" s="95" t="s">
         <v>714</v>
       </c>
       <c r="C68" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D68" s="92"/>
       <c r="E68" s="97"/>
     </row>
     <row r="69" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A69" s="94" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C69" s="96" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="D69" s="92"/>
       <c r="E69" s="97"/>
     </row>
     <row r="70" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A70" s="94" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="B70" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C70" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D70" s="92"/>
       <c r="E70" s="97"/>
     </row>
     <row r="71" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="94" t="s">
-        <v>1318</v>
+        <v>1334</v>
       </c>
       <c r="B71" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D71" s="92"/>
       <c r="E71" s="97"/>
     </row>
     <row r="72" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="94" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="B72" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C72" s="96" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="D72" s="92"/>
       <c r="E72" s="97"/>
     </row>
     <row r="73" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A73" s="94" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C73" s="96" t="s">
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="D73" s="92"/>
       <c r="E73" s="97"/>
     </row>
     <row r="74" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A74" s="94" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
       <c r="B74" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C74" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D74" s="92"/>
       <c r="E74" s="97"/>
     </row>
     <row r="75" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A75" s="94" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="B75" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C75" s="96" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="D75" s="92"/>
       <c r="E75" s="97"/>
     </row>
     <row r="76" ht="77.1" customHeight="1" spans="1:5">
       <c r="A76" s="94" t="s">
-        <v>1328</v>
+        <v>1344</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>723</v>
       </c>
       <c r="C76" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D76" s="92"/>
       <c r="E76" s="97"/>
     </row>
     <row r="77" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A77" s="94" t="s">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
       <c r="D77" s="92"/>
       <c r="E77" s="97"/>
     </row>
     <row r="78" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A78" s="94" t="s">
-        <v>1331</v>
+        <v>1347</v>
       </c>
       <c r="B78" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D78" s="92"/>
       <c r="E78" s="97"/>
     </row>
     <row r="79" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A79" s="94" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="B79" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C79" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D79" s="92"/>
       <c r="E79" s="97"/>
     </row>
     <row r="80" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A80" s="94" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="B80" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C80" s="96" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="D80" s="92"/>
       <c r="E80" s="97"/>
     </row>
     <row r="81" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A81" s="94" t="s">
-        <v>1334</v>
+        <v>1350</v>
       </c>
       <c r="B81" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C81" s="96" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="D81" s="92"/>
       <c r="E81" s="97"/>
     </row>
     <row r="82" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A82" s="94" t="s">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="B82" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C82" s="96" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="D82" s="92"/>
       <c r="E82" s="97"/>
     </row>
     <row r="83" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A83" s="94" t="s">
-        <v>1336</v>
+        <v>1352</v>
       </c>
       <c r="B83" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C83" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D83" s="92"/>
       <c r="E83" s="97"/>
     </row>
     <row r="84" ht="105" customHeight="1" spans="1:5">
       <c r="A84" s="94" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="B84" s="95" t="s">
         <v>732</v>
       </c>
       <c r="C84" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D84" s="92"/>
       <c r="E84" s="97"/>
     </row>
     <row r="85" ht="48.95" customHeight="1" spans="1:5">
       <c r="A85" s="94" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="B85" s="95" t="s">
         <v>734</v>
       </c>
       <c r="C85" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D85" s="92"/>
       <c r="E85" s="97"/>
     </row>
     <row r="86" ht="48.95" customHeight="1" spans="1:5">
       <c r="A86" s="94" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>736</v>
       </c>
       <c r="C86" s="96" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="D86" s="92"/>
       <c r="E86" s="97"/>
     </row>
     <row r="87" ht="203.1" customHeight="1" spans="1:5">
       <c r="A87" s="94" t="s">
-        <v>1340</v>
+        <v>1356</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>738</v>
       </c>
       <c r="C87" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D87" s="92"/>
       <c r="E87" s="97"/>
     </row>
     <row r="88" ht="63" customHeight="1" spans="1:5">
       <c r="A88" s="94" t="s">
-        <v>1341</v>
+        <v>1357</v>
       </c>
       <c r="B88" s="95" t="s">
         <v>739</v>
       </c>
       <c r="C88" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D88" s="92"/>
       <c r="E88" s="97"/>
     </row>
     <row r="89" ht="35.1" hidden="1" customHeight="1" spans="1:5">
       <c r="A89" s="94" t="s">
-        <v>1342</v>
+        <v>1358</v>
       </c>
       <c r="B89" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C89" s="96" t="s">
-        <v>1343</v>
+        <v>1359</v>
       </c>
       <c r="D89" s="92"/>
       <c r="E89" s="97"/>
     </row>
     <row r="90" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A90" s="94" t="s">
-        <v>1344</v>
+        <v>1360</v>
       </c>
       <c r="B90" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C90" s="96" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
       <c r="D90" s="92"/>
       <c r="E90" s="97"/>
     </row>
     <row r="91" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A91" s="94" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="B91" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C91" s="96" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D91" s="92"/>
       <c r="E91" s="97"/>
     </row>
     <row r="92" ht="408.95" customHeight="1" spans="1:5">
       <c r="A92" s="94" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
       <c r="C92" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D92" s="92"/>
       <c r="E92" s="97"/>
     </row>
     <row r="93" ht="48.95" customHeight="1" spans="1:5">
       <c r="A93" s="94" t="s">
-        <v>1350</v>
+        <v>1366</v>
       </c>
       <c r="B93" s="95" t="s">
         <v>746</v>
       </c>
       <c r="C93" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D93" s="92"/>
       <c r="E93" s="97"/>
     </row>
     <row r="94" ht="119.1" customHeight="1" spans="1:5">
       <c r="A94" s="94" t="s">
-        <v>1351</v>
+        <v>1367</v>
       </c>
       <c r="B94" s="95" t="s">
         <v>748</v>
       </c>
       <c r="C94" s="96" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
       <c r="D94" s="92"/>
       <c r="E94" s="97"/>
     </row>
     <row r="95" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A95" s="94" t="s">
-        <v>1353</v>
+        <v>1369</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C95" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D95" s="92"/>
       <c r="E95" s="97"/>
     </row>
     <row r="96" ht="48.95" customHeight="1" spans="1:5">
       <c r="A96" s="94" t="s">
-        <v>1354</v>
+        <v>1370</v>
       </c>
       <c r="B96" s="95" t="s">
         <v>751</v>
       </c>
       <c r="C96" s="96" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="D96" s="92"/>
       <c r="E96" s="97"/>
     </row>
     <row r="97" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A97" s="94" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="B97" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C97" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D97" s="92"/>
       <c r="E97" s="97"/>
     </row>
     <row r="98" ht="48.95" customHeight="1" spans="1:5">
       <c r="A98" s="94" t="s">
-        <v>1356</v>
+        <v>1372</v>
       </c>
       <c r="B98" s="95" t="s">
         <v>754</v>
       </c>
       <c r="C98" s="96" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="D98" s="92"/>
       <c r="E98" s="97"/>
     </row>
     <row r="99" ht="119.1" customHeight="1" spans="1:5">
       <c r="A99" s="94" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
       <c r="B99" s="95" t="s">
         <v>748</v>
       </c>
       <c r="C99" s="96" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="D99" s="92"/>
       <c r="E99" s="97"/>
     </row>
     <row r="100" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A100" s="94" t="s">
-        <v>1358</v>
+        <v>1374</v>
       </c>
       <c r="B100" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C100" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D100" s="92"/>
       <c r="E100" s="97"/>
     </row>
     <row r="101" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A101" s="94" t="s">
-        <v>1359</v>
+        <v>1375</v>
       </c>
       <c r="B101" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C101" s="96" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
       <c r="D101" s="92"/>
       <c r="E101" s="97"/>
     </row>
     <row r="102" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A102" s="94" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="B102" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C102" s="96" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
       <c r="D102" s="92"/>
       <c r="E102" s="97"/>
     </row>
     <row r="103" ht="35.1" hidden="1" customHeight="1" spans="1:5">
       <c r="A103" s="94" t="s">
-        <v>1363</v>
+        <v>1379</v>
       </c>
       <c r="B103" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C103" s="96" t="s">
-        <v>1364</v>
+        <v>1380</v>
       </c>
       <c r="D103" s="92"/>
       <c r="E103" s="97"/>
     </row>
     <row r="104" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A104" s="94" t="s">
-        <v>1365</v>
+        <v>1381</v>
       </c>
       <c r="B104" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C104" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D104" s="92"/>
       <c r="E104" s="97"/>
     </row>
     <row r="105" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="94" t="s">
-        <v>1366</v>
+        <v>1382</v>
       </c>
       <c r="B105" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C105" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D105" s="92"/>
       <c r="E105" s="97"/>
     </row>
     <row r="106" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="94" t="s">
-        <v>1367</v>
+        <v>1383</v>
       </c>
       <c r="B106" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C106" s="96" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D106" s="92"/>
       <c r="E106" s="97"/>
     </row>
     <row r="107" ht="48.95" customHeight="1" spans="1:5">
       <c r="A107" s="94" t="s">
-        <v>1368</v>
+        <v>1384</v>
       </c>
       <c r="B107" s="95" t="s">
         <v>762</v>
       </c>
       <c r="C107" s="96" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="D107" s="92"/>
       <c r="E107" s="97"/>
     </row>
     <row r="108" ht="90.95" customHeight="1" spans="1:5">
       <c r="A108" s="94" t="s">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="B108" s="95" t="s">
         <v>764</v>
       </c>
       <c r="C108" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D108" s="92"/>
       <c r="E108" s="97"/>
     </row>
     <row r="109" ht="48.95" customHeight="1" spans="1:5">
       <c r="A109" s="94" t="s">
-        <v>1261</v>
+        <v>1277</v>
       </c>
       <c r="B109" s="95" t="s">
         <v>765</v>
       </c>
       <c r="C109" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D109" s="92"/>
       <c r="E109" s="97"/>
     </row>
     <row r="110" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A110" s="94" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
       <c r="B110" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C110" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D110" s="92"/>
       <c r="E110" s="97"/>
     </row>
     <row r="111" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A111" s="94" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="B111" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C111" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D111" s="92"/>
       <c r="E111" s="97"/>
     </row>
     <row r="112" ht="132.95" customHeight="1" spans="1:5">
       <c r="A112" s="94" t="s">
-        <v>1372</v>
+        <v>1388</v>
       </c>
       <c r="B112" s="95" t="s">
         <v>768</v>
       </c>
       <c r="C112" s="96" t="s">
-        <v>1373</v>
+        <v>1389</v>
       </c>
       <c r="D112" s="92"/>
       <c r="E112" s="97"/>
     </row>
     <row r="113" ht="119.1" customHeight="1" spans="1:5">
       <c r="A113" s="94" t="s">
-        <v>1374</v>
+        <v>1390</v>
       </c>
       <c r="B113" s="95" t="s">
         <v>769</v>
       </c>
       <c r="C113" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D113" s="92"/>
       <c r="E113" s="97"/>
     </row>
     <row r="114" ht="119.1" customHeight="1" spans="1:5">
       <c r="A114" s="94" t="s">
-        <v>1375</v>
+        <v>1391</v>
       </c>
       <c r="B114" s="95" t="s">
         <v>770</v>
       </c>
       <c r="C114" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D114" s="92"/>
       <c r="E114" s="97"/>
     </row>
     <row r="115" ht="63" customHeight="1" spans="1:5">
       <c r="A115" s="94" t="s">
-        <v>1376</v>
+        <v>1392</v>
       </c>
       <c r="B115" s="95" t="s">
         <v>772</v>
       </c>
       <c r="C115" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D115" s="92"/>
       <c r="E115" s="97"/>
     </row>
     <row r="116" ht="48.95" customHeight="1" spans="1:5">
       <c r="A116" s="94" t="s">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="B116" s="95" t="s">
         <v>774</v>
       </c>
       <c r="C116" s="96" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="D116" s="92"/>
       <c r="E116" s="97"/>
     </row>
     <row r="117" ht="48.95" customHeight="1" spans="1:5">
       <c r="A117" s="94" t="s">
-        <v>1378</v>
+        <v>1394</v>
       </c>
       <c r="B117" s="95" t="s">
         <v>776</v>
       </c>
       <c r="C117" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D117" s="92"/>
       <c r="E117" s="97"/>
     </row>
     <row r="118" ht="48.95" customHeight="1" spans="1:5">
       <c r="A118" s="94" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="B118" s="95" t="s">
         <v>778</v>
       </c>
       <c r="C118" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D118" s="92"/>
       <c r="E118" s="97"/>
     </row>
     <row r="119" ht="48.95" customHeight="1" spans="1:5">
       <c r="A119" s="94" t="s">
-        <v>1380</v>
+        <v>1396</v>
       </c>
       <c r="B119" s="95" t="s">
         <v>779</v>
       </c>
       <c r="C119" s="96" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="D119" s="92"/>
       <c r="E119" s="97"/>
     </row>
     <row r="120" ht="48.95" customHeight="1" spans="1:5">
       <c r="A120" s="94" t="s">
-        <v>1381</v>
+        <v>1397</v>
       </c>
       <c r="B120" s="95" t="s">
         <v>781</v>
       </c>
       <c r="C120" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D120" s="92"/>
       <c r="E120" s="97"/>
     </row>
     <row r="121" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A121" s="94" t="s">
-        <v>1382</v>
+        <v>1398</v>
       </c>
       <c r="B121" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C121" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D121" s="92"/>
       <c r="E121" s="97"/>
     </row>
     <row r="122" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A122" s="94" t="s">
-        <v>1383</v>
+        <v>1399</v>
       </c>
       <c r="B122" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C122" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D122" s="92"/>
       <c r="E122" s="97"/>
     </row>
     <row r="123" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A123" s="94" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C123" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D123" s="92"/>
       <c r="E123" s="97"/>
     </row>
     <row r="124" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A124" s="94" t="s">
-        <v>1385</v>
+        <v>1401</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C124" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D124" s="92"/>
       <c r="E124" s="97"/>
     </row>
     <row r="125" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A125" s="94" t="s">
-        <v>1386</v>
+        <v>1402</v>
       </c>
       <c r="B125" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C125" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D125" s="92"/>
       <c r="E125" s="97"/>
     </row>
     <row r="126" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A126" s="94" t="s">
-        <v>1387</v>
+        <v>1403</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C126" s="96" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="D126" s="92"/>
       <c r="E126" s="97"/>
     </row>
     <row r="127" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A127" s="94" t="s">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="B127" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C127" s="96" t="s">
-        <v>1389</v>
+        <v>1405</v>
       </c>
       <c r="D127" s="92"/>
       <c r="E127" s="97"/>
     </row>
     <row r="128" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A128" s="94" t="s">
-        <v>1390</v>
+        <v>1406</v>
       </c>
       <c r="B128" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C128" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D128" s="92"/>
       <c r="E128" s="97"/>
     </row>
     <row r="129" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A129" s="94" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
       <c r="B129" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C129" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D129" s="92"/>
       <c r="E129" s="97"/>
     </row>
     <row r="130" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A130" s="94" t="s">
-        <v>1392</v>
+        <v>1408</v>
       </c>
       <c r="B130" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C130" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D130" s="92"/>
       <c r="E130" s="97"/>
     </row>
     <row r="131" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="94" t="s">
-        <v>1393</v>
+        <v>1409</v>
       </c>
       <c r="B131" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C131" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D131" s="92"/>
       <c r="E131" s="97"/>
     </row>
     <row r="132" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="94" t="s">
-        <v>1394</v>
+        <v>1410</v>
       </c>
       <c r="B132" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C132" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D132" s="92"/>
       <c r="E132" s="97"/>
     </row>
     <row r="133" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="94" t="s">
-        <v>1395</v>
+        <v>1411</v>
       </c>
       <c r="B133" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C133" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D133" s="92"/>
       <c r="E133" s="97"/>
     </row>
     <row r="134" ht="27" customHeight="1" spans="1:5">
       <c r="A134" s="94" t="s">
-        <v>1396</v>
+        <v>1412</v>
       </c>
       <c r="B134" s="98"/>
       <c r="C134" s="96" t="s">
-        <v>1397</v>
+        <v>1413</v>
       </c>
       <c r="D134" s="92"/>
       <c r="E134" s="97"/>
     </row>
     <row r="135" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A135" s="94" t="s">
-        <v>1398</v>
+        <v>1414</v>
       </c>
       <c r="B135" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C135" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D135" s="92"/>
       <c r="E135" s="97"/>
     </row>
     <row r="136" ht="48.95" customHeight="1" spans="1:5">
       <c r="A136" s="94" t="s">
-        <v>1399</v>
+        <v>1415</v>
       </c>
       <c r="B136" s="95" t="s">
         <v>797</v>
       </c>
       <c r="C136" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D136" s="92"/>
       <c r="E136" s="97"/>
     </row>
     <row r="137" ht="48.95" customHeight="1" spans="1:5">
       <c r="A137" s="94" t="s">
-        <v>1400</v>
+        <v>1416</v>
       </c>
       <c r="B137" s="95" t="s">
         <v>799</v>
       </c>
       <c r="C137" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D137" s="92"/>
       <c r="E137" s="97"/>
     </row>
     <row r="138" ht="48.95" customHeight="1" spans="1:5">
       <c r="A138" s="94" t="s">
-        <v>1401</v>
+        <v>1417</v>
       </c>
       <c r="B138" s="95" t="s">
         <v>801</v>
       </c>
       <c r="C138" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D138" s="92"/>
       <c r="E138" s="97"/>
     </row>
     <row r="139" ht="63" customHeight="1" spans="1:5">
       <c r="A139" s="94" t="s">
-        <v>1402</v>
+        <v>1418</v>
       </c>
       <c r="B139" s="95" t="s">
         <v>803</v>
       </c>
       <c r="C139" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D139" s="92"/>
       <c r="E139" s="97"/>
     </row>
     <row r="140" ht="189" customHeight="1" spans="1:5">
       <c r="A140" s="94" t="s">
-        <v>1403</v>
+        <v>1419</v>
       </c>
       <c r="B140" s="95" t="s">
         <v>805</v>
       </c>
       <c r="C140" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D140" s="92"/>
       <c r="E140" s="97"/>
     </row>
     <row r="141" ht="119.1" customHeight="1" spans="1:5">
       <c r="A141" s="94" t="s">
-        <v>1404</v>
+        <v>1420</v>
       </c>
       <c r="B141" s="95" t="s">
         <v>806</v>
       </c>
       <c r="C141" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D141" s="92"/>
       <c r="E141" s="97"/>
     </row>
     <row r="142" ht="132.95" customHeight="1" spans="1:5">
       <c r="A142" s="94" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
       <c r="B142" s="95" t="s">
         <v>807</v>
       </c>
       <c r="C142" s="96" t="s">
-        <v>1406</v>
+        <v>1422</v>
       </c>
       <c r="D142" s="92"/>
       <c r="E142" s="97"/>
     </row>
     <row r="143" ht="132.95" customHeight="1" spans="1:5">
       <c r="A143" s="94" t="s">
-        <v>1407</v>
+        <v>1423</v>
       </c>
       <c r="B143" s="95" t="s">
         <v>809</v>
       </c>
       <c r="C143" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D143" s="92"/>
       <c r="E143" s="97"/>
     </row>
     <row r="144" ht="63" customHeight="1" spans="1:5">
       <c r="A144" s="94" t="s">
-        <v>1408</v>
+        <v>1424</v>
       </c>
       <c r="B144" s="95" t="s">
         <v>811</v>
       </c>
       <c r="C144" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D144" s="92"/>
       <c r="E144" s="97"/>
     </row>
     <row r="145" ht="48.95" customHeight="1" spans="1:5">
       <c r="A145" s="94" t="s">
-        <v>1409</v>
+        <v>1425</v>
       </c>
       <c r="B145" s="95" t="s">
         <v>813</v>
       </c>
       <c r="C145" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D145" s="92"/>
       <c r="E145" s="97"/>
     </row>
     <row r="146" ht="105" customHeight="1" spans="1:5">
       <c r="A146" s="94" t="s">
-        <v>1410</v>
+        <v>1426</v>
       </c>
       <c r="B146" s="95" t="s">
         <v>815</v>
       </c>
       <c r="C146" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D146" s="92"/>
       <c r="E146" s="97"/>
     </row>
     <row r="147" ht="105" customHeight="1" spans="1:5">
       <c r="A147" s="94" t="s">
-        <v>1411</v>
+        <v>1427</v>
       </c>
       <c r="B147" s="95" t="s">
         <v>817</v>
       </c>
       <c r="C147" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D147" s="92"/>
       <c r="E147" s="97"/>
     </row>
     <row r="148" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A148" s="94" t="s">
-        <v>1412</v>
+        <v>1428</v>
       </c>
       <c r="B148" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C148" s="96" t="s">
-        <v>1413</v>
+        <v>1429</v>
       </c>
       <c r="D148" s="92"/>
       <c r="E148" s="97"/>
     </row>
     <row r="149" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A149" s="94" t="s">
-        <v>1414</v>
+        <v>1430</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C149" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D149" s="92"/>
       <c r="E149" s="97"/>
     </row>
     <row r="150" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A150" s="94" t="s">
-        <v>1415</v>
+        <v>1431</v>
       </c>
       <c r="B150" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C150" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D150" s="92"/>
       <c r="E150" s="97"/>
     </row>
     <row r="151" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A151" s="94" t="s">
-        <v>1416</v>
+        <v>1432</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C151" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D151" s="92"/>
       <c r="E151" s="97"/>
     </row>
     <row r="152" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A152" s="94" t="s">
-        <v>1417</v>
+        <v>1433</v>
       </c>
       <c r="B152" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>1418</v>
+        <v>1434</v>
       </c>
       <c r="D152" s="92"/>
       <c r="E152" s="97"/>
     </row>
     <row r="153" ht="77.1" customHeight="1" spans="1:5">
       <c r="A153" s="94" t="s">
-        <v>1419</v>
+        <v>1435</v>
       </c>
       <c r="B153" s="95" t="s">
         <v>823</v>
       </c>
       <c r="C153" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D153" s="92"/>
       <c r="E153" s="97"/>
     </row>
     <row r="154" ht="35.1" hidden="1" customHeight="1" spans="1:5">
       <c r="A154" s="94" t="s">
-        <v>1420</v>
+        <v>1436</v>
       </c>
       <c r="B154" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>1421</v>
+        <v>1437</v>
       </c>
       <c r="D154" s="92"/>
       <c r="E154" s="97"/>
     </row>
     <row r="155" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A155" s="94" t="s">
-        <v>1422</v>
+        <v>1438</v>
       </c>
       <c r="B155" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>1423</v>
+        <v>1439</v>
       </c>
       <c r="D155" s="92"/>
       <c r="E155" s="97"/>
     </row>
     <row r="156" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A156" s="94" t="s">
-        <v>1424</v>
+        <v>1440</v>
       </c>
       <c r="B156" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D156" s="92"/>
       <c r="E156" s="97"/>
     </row>
     <row r="157" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A157" s="94" t="s">
-        <v>1425</v>
+        <v>1441</v>
       </c>
       <c r="B157" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C157" s="96" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D157" s="92"/>
       <c r="E157" s="97"/>
     </row>
     <row r="158" ht="63" customHeight="1" spans="1:5">
       <c r="A158" s="94" t="s">
-        <v>1426</v>
+        <v>1442</v>
       </c>
       <c r="B158" s="95" t="s">
         <v>829</v>
       </c>
       <c r="C158" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D158" s="92"/>
       <c r="E158" s="97"/>
     </row>
     <row r="159" ht="161.1" customHeight="1" spans="1:5">
       <c r="A159" s="94" t="s">
-        <v>1427</v>
+        <v>1443</v>
       </c>
       <c r="B159" s="95" t="s">
         <v>831</v>
       </c>
       <c r="C159" s="96" t="s">
-        <v>1428</v>
+        <v>1444</v>
       </c>
       <c r="D159" s="92"/>
       <c r="E159" s="97"/>
     </row>
     <row r="160" ht="48.95" customHeight="1" spans="1:5">
       <c r="A160" s="94" t="s">
-        <v>1429</v>
+        <v>1445</v>
       </c>
       <c r="B160" s="95" t="s">
         <v>833</v>
       </c>
       <c r="C160" s="96" t="s">
-        <v>1428</v>
+        <v>1444</v>
       </c>
       <c r="D160" s="92"/>
       <c r="E160" s="97"/>
     </row>
     <row r="161" ht="77.1" customHeight="1" spans="1:5">
       <c r="A161" s="94" t="s">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="B161" s="95" t="s">
         <v>835</v>
       </c>
       <c r="C161" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D161" s="92"/>
       <c r="E161" s="97"/>
     </row>
     <row r="162" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A162" s="94" t="s">
-        <v>1431</v>
+        <v>1447</v>
       </c>
       <c r="B162" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C162" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D162" s="92"/>
       <c r="E162" s="97"/>
     </row>
     <row r="163" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A163" s="94" t="s">
-        <v>1432</v>
+        <v>1448</v>
       </c>
       <c r="B163" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C163" s="96" t="s">
-        <v>1433</v>
+        <v>1449</v>
       </c>
       <c r="D163" s="92"/>
       <c r="E163" s="97"/>
     </row>
     <row r="164" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="94" t="s">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="B164" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C164" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D164" s="92"/>
       <c r="E164" s="97"/>
     </row>
     <row r="165" ht="161.1" customHeight="1" spans="1:5">
       <c r="A165" s="94" t="s">
-        <v>1435</v>
+        <v>1451</v>
       </c>
       <c r="B165" s="95" t="s">
         <v>840</v>
       </c>
       <c r="C165" s="96" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="D165" s="92"/>
       <c r="E165" s="97"/>
     </row>
     <row r="166" ht="48.95" customHeight="1" spans="1:5">
       <c r="A166" s="94" t="s">
-        <v>1437</v>
+        <v>1453</v>
       </c>
       <c r="B166" s="95" t="s">
         <v>842</v>
       </c>
       <c r="C166" s="96" t="s">
-        <v>1438</v>
+        <v>1454</v>
       </c>
       <c r="D166" s="92"/>
       <c r="E166" s="97"/>
     </row>
     <row r="167" ht="48.95" customHeight="1" spans="1:5">
       <c r="A167" s="94" t="s">
-        <v>1439</v>
+        <v>1455</v>
       </c>
       <c r="B167" s="95" t="s">
         <v>844</v>
       </c>
       <c r="C167" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D167" s="92"/>
       <c r="E167" s="97"/>
     </row>
     <row r="168" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A168" s="94" t="s">
-        <v>1440</v>
+        <v>1456</v>
       </c>
       <c r="B168" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C168" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D168" s="92"/>
       <c r="E168" s="97"/>
     </row>
     <row r="169" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A169" s="94" t="s">
-        <v>1441</v>
+        <v>1457</v>
       </c>
       <c r="B169" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C169" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D169" s="92"/>
       <c r="E169" s="97"/>
     </row>
     <row r="170" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A170" s="94" t="s">
-        <v>1442</v>
+        <v>1458</v>
       </c>
       <c r="B170" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C170" s="96" t="s">
-        <v>1443</v>
+        <v>1459</v>
       </c>
       <c r="D170" s="92"/>
       <c r="E170" s="97"/>
     </row>
     <row r="171" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="94" t="s">
-        <v>1444</v>
+        <v>1460</v>
       </c>
       <c r="B171" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C171" s="96" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D171" s="92"/>
       <c r="E171" s="97"/>
     </row>
     <row r="172" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="94" t="s">
-        <v>1445</v>
+        <v>1461</v>
       </c>
       <c r="B172" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C172" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D172" s="92"/>
       <c r="E172" s="97"/>
     </row>
     <row r="173" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="94" t="s">
-        <v>1446</v>
+        <v>1462</v>
       </c>
       <c r="B173" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C173" s="96" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="D173" s="92"/>
       <c r="E173" s="97"/>
     </row>
     <row r="174" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="94" t="s">
-        <v>1447</v>
+        <v>1463</v>
       </c>
       <c r="B174" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C174" s="96" t="s">
-        <v>1448</v>
+        <v>1464</v>
       </c>
       <c r="D174" s="92"/>
       <c r="E174" s="97"/>
     </row>
     <row r="175" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="94" t="s">
-        <v>1449</v>
+        <v>1465</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D175" s="92"/>
       <c r="E175" s="97"/>
     </row>
     <row r="176" ht="48.95" customHeight="1" spans="1:5">
       <c r="A176" s="94" t="s">
-        <v>1450</v>
+        <v>1466</v>
       </c>
       <c r="B176" s="95" t="s">
         <v>854</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="D176" s="92"/>
       <c r="E176" s="97"/>
     </row>
     <row r="177" ht="147" customHeight="1" spans="1:5">
       <c r="A177" s="94" t="s">
-        <v>1451</v>
+        <v>1467</v>
       </c>
       <c r="B177" s="95" t="s">
         <v>856</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="D177" s="92"/>
       <c r="E177" s="97"/>
     </row>
     <row r="178" ht="105" customHeight="1" spans="1:5">
       <c r="A178" s="94" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
       <c r="B178" s="95" t="s">
         <v>663</v>
       </c>
       <c r="C178" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D178" s="92"/>
       <c r="E178" s="97"/>
     </row>
     <row r="179" ht="77.1" customHeight="1" spans="1:5">
       <c r="A179" s="94" t="s">
-        <v>1453</v>
+        <v>1469</v>
       </c>
       <c r="B179" s="95" t="s">
         <v>859</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D179" s="92"/>
       <c r="E179" s="97"/>
     </row>
     <row r="180" ht="63" customHeight="1" spans="1:5">
       <c r="A180" s="94" t="s">
-        <v>1454</v>
+        <v>1470</v>
       </c>
       <c r="B180" s="95" t="s">
         <v>861</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D180" s="92"/>
       <c r="E180" s="97"/>
     </row>
     <row r="181" ht="48.95" customHeight="1" spans="1:5">
       <c r="A181" s="94" t="s">
-        <v>1455</v>
+        <v>1471</v>
       </c>
       <c r="B181" s="95" t="s">
         <v>863</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="D181" s="92"/>
       <c r="E181" s="97"/>
     </row>
     <row r="182" ht="48.95" customHeight="1" spans="1:5">
       <c r="A182" s="94" t="s">
-        <v>1456</v>
+        <v>1472</v>
       </c>
       <c r="B182" s="95" t="s">
         <v>865</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D182" s="92"/>
       <c r="E182" s="97"/>
     </row>
     <row r="183" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A183" s="94" t="s">
-        <v>1457</v>
+        <v>1473</v>
       </c>
       <c r="B183" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D183" s="92"/>
       <c r="E183" s="97"/>
     </row>
     <row r="184" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A184" s="94" t="s">
-        <v>1458</v>
+        <v>1474</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>1459</v>
+        <v>1475</v>
       </c>
       <c r="D184" s="92"/>
       <c r="E184" s="97"/>
     </row>
     <row r="185" ht="48.95" customHeight="1" spans="1:5">
       <c r="A185" s="94" t="s">
-        <v>1460</v>
+        <v>1476</v>
       </c>
       <c r="B185" s="95" t="s">
         <v>869</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D185" s="92"/>
       <c r="E185" s="97"/>
     </row>
     <row r="186" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A186" s="94" t="s">
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="B186" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D186" s="92"/>
       <c r="E186" s="97"/>
     </row>
     <row r="187" ht="48.95" customHeight="1" spans="1:5">
       <c r="A187" s="94" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
       <c r="B187" s="95" t="s">
         <v>871</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D187" s="92"/>
       <c r="E187" s="97"/>
     </row>
     <row r="188" ht="90.95" customHeight="1" spans="1:5">
       <c r="A188" s="94" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="B188" s="95" t="s">
         <v>873</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D188" s="92"/>
       <c r="E188" s="97"/>
     </row>
     <row r="189" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A189" s="94" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="B189" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="D189" s="92"/>
       <c r="E189" s="97"/>
     </row>
     <row r="190" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="94" t="s">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="B190" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C190" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D190" s="92"/>
       <c r="E190" s="97"/>
     </row>
     <row r="191" ht="48.95" customHeight="1" spans="1:5">
       <c r="A191" s="94" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="B191" s="95" t="s">
         <v>876</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="D191" s="92"/>
       <c r="E191" s="97"/>
     </row>
     <row r="192" ht="48.95" customHeight="1" spans="1:5">
       <c r="A192" s="94" t="s">
-        <v>1467</v>
+        <v>1483</v>
       </c>
       <c r="B192" s="95" t="s">
         <v>878</v>
       </c>
       <c r="C192" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D192" s="92"/>
       <c r="E192" s="97"/>
     </row>
     <row r="193" ht="48.95" customHeight="1" spans="1:5">
       <c r="A193" s="94" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="B193" s="95" t="s">
         <v>879</v>
       </c>
       <c r="C193" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D193" s="92"/>
       <c r="E193" s="97"/>
     </row>
     <row r="194" ht="48.95" customHeight="1" spans="1:5">
       <c r="A194" s="94" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="B194" s="95" t="s">
         <v>881</v>
       </c>
       <c r="C194" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D194" s="92"/>
       <c r="E194" s="97"/>
     </row>
     <row r="195" ht="174.95" customHeight="1" spans="1:5">
       <c r="A195" s="94" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="B195" s="95" t="s">
         <v>883</v>
       </c>
       <c r="C195" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D195" s="92"/>
       <c r="E195" s="97"/>
     </row>
     <row r="196" ht="77.1" customHeight="1" spans="1:5">
       <c r="A196" s="94" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="B196" s="95" t="s">
         <v>885</v>
       </c>
       <c r="C196" s="96" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="D196" s="92"/>
       <c r="E196" s="97"/>
     </row>
     <row r="197" ht="48.95" customHeight="1" spans="1:5">
       <c r="A197" s="94" t="s">
-        <v>1472</v>
+        <v>1488</v>
       </c>
       <c r="B197" s="95" t="s">
         <v>887</v>
       </c>
       <c r="C197" s="96" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="D197" s="92"/>
       <c r="E197" s="97"/>
     </row>
     <row r="198" ht="105" customHeight="1" spans="1:5">
       <c r="A198" s="94" t="s">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="B198" s="95" t="s">
         <v>889</v>
       </c>
       <c r="C198" s="96" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="D198" s="92"/>
       <c r="E198" s="97"/>
     </row>
     <row r="199" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A199" s="94" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="B199" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C199" s="96" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="D199" s="92"/>
       <c r="E199" s="97"/>
     </row>
     <row r="200" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A200" s="94" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="B200" s="95" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C200" s="96" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="D200" s="92"/>
       <c r="E200" s="97"/>
     </row>
     <row r="201" ht="48.95" hidden="1" customHeight="1" spans="1:5">
       <c r="A201" s="94" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="B201" s="95" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="C201" s="96" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D201" s="92"/>
       <c r="E201" s="97"/>
     </row>
     <row r="202" ht="258.95" customHeight="1" spans="1:5">
       <c r="A202" s="94" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="B202" s="95" t="s">
         <v>893</v>
       </c>
       <c r="C202" s="96" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D202" s="92"/>
       <c r="E202" s="97"/>
     </row>
     <row r="203" ht="63" customHeight="1" spans="1:5">
       <c r="A203" s="94" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="B203" s="95" t="s">
         <v>894</v>
       </c>
       <c r="C203" s="96" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="D203" s="92"/>
       <c r="E203" s="97"/>
     </row>
     <row r="204" ht="132.95" customHeight="1" spans="1:5">
       <c r="A204" s="94" t="s">
-        <v>1481</v>
+        <v>1497</v>
       </c>
       <c r="B204" s="95" t="s">
         <v>896</v>
       </c>
       <c r="C204" s="96" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="D204" s="92"/>
       <c r="E204" s="97"/>
     </row>
     <row r="205" ht="63" customHeight="1" spans="1:5">
       <c r="A205" s="94" t="s">
-        <v>1482</v>
+        <v>1498</v>
       </c>
       <c r="B205" s="94" t="s">
         <v>678</v>
@@ -31641,7 +31502,7 @@
   <sheetData>
     <row r="1" ht="44.65" customHeight="1" spans="1:5">
       <c r="A1" s="56" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="58"/>
@@ -31650,7 +31511,7 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:5">
       <c r="A2" s="60" t="s">
-        <v>1484</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>1098</v>
@@ -31659,7 +31520,7 @@
         <v>1099</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>1485</v>
+        <v>1501</v>
       </c>
       <c r="E2" s="63"/>
     </row>
@@ -31734,7 +31595,7 @@
         <v>1109</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="E7" s="66"/>
     </row>
@@ -31830,7 +31691,7 @@
     </row>
     <row r="14" ht="147.2" customHeight="1" spans="1:5">
       <c r="A14" s="65" t="s">
-        <v>1487</v>
+        <v>1503</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -31869,10 +31730,10 @@
         <v>1122</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>1488</v>
+        <v>1504</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="D18" s="77"/>
       <c r="E18" s="72"/>
@@ -31882,10 +31743,10 @@
         <v>1124</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>1490</v>
+        <v>1506</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="72"/>
@@ -31898,7 +31759,7 @@
         <v>1127</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="72"/>
@@ -31908,10 +31769,10 @@
         <v>1128</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="D21" s="77"/>
       <c r="E21" s="72"/>
@@ -31924,7 +31785,7 @@
         <v>1131</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1492</v>
+        <v>1508</v>
       </c>
       <c r="D22" s="77"/>
       <c r="E22" s="72"/>
@@ -31998,7 +31859,7 @@
         <v>537</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1493</v>
+        <v>1509</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32"/>
@@ -32009,7 +31870,7 @@
     </row>
     <row r="2" ht="60.6" customHeight="1" spans="1:256">
       <c r="A2" s="34" t="s">
-        <v>1494</v>
+        <v>1510</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>538</v>
@@ -32017,7 +31878,7 @@
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="34" t="s">
-        <v>1494</v>
+        <v>1510</v>
       </c>
       <c r="IS2"/>
       <c r="IT2"/>
@@ -32038,7 +31899,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>1495</v>
+        <v>1511</v>
       </c>
       <c r="IS3"/>
       <c r="IT3"/>
@@ -32059,7 +31920,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>1496</v>
+        <v>1512</v>
       </c>
       <c r="IS4"/>
       <c r="IT4"/>
@@ -32080,7 +31941,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>1497</v>
+        <v>1513</v>
       </c>
       <c r="IS5"/>
       <c r="IT5"/>
@@ -32101,7 +31962,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>1498</v>
+        <v>1514</v>
       </c>
       <c r="IS6"/>
       <c r="IT6"/>
@@ -32122,7 +31983,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>1499</v>
+        <v>1515</v>
       </c>
       <c r="IS7"/>
       <c r="IT7"/>
@@ -32143,7 +32004,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="IS8"/>
       <c r="IT8"/>
@@ -32191,7 +32052,7 @@
         <v>554</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>1501</v>
+        <v>1517</v>
       </c>
       <c r="C11" s="38">
         <v>200</v>
@@ -32223,14 +32084,14 @@
         <v>556</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>538</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="47" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="IS13"/>
       <c r="IT13"/>
@@ -32239,7 +32100,7 @@
     </row>
     <row r="14" ht="45.95" customHeight="1" spans="1:256">
       <c r="A14" s="49" t="s">
-        <v>1503</v>
+        <v>1519</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>559</v>
@@ -32251,7 +32112,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>1504</v>
+        <v>1520</v>
       </c>
       <c r="IS14"/>
       <c r="IT14"/>
@@ -32260,7 +32121,7 @@
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:256">
       <c r="A15" s="49" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>561</v>
@@ -32272,7 +32133,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="IS15"/>
       <c r="IT15"/>
@@ -32281,7 +32142,7 @@
     </row>
     <row r="16" ht="45.95" customHeight="1" spans="1:256">
       <c r="A16" s="49" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>563</v>
@@ -32293,7 +32154,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="IS16"/>
       <c r="IT16"/>
@@ -32372,7 +32233,7 @@
     <row r="1" ht="24" customHeight="1" spans="1:8">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -32381,16 +32242,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1510</v>
+        <v>1526</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>899</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>1512</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -32404,7 +32265,7 @@
         <v>303</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1513</v>
+        <v>1529</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -32420,7 +32281,7 @@
         <v>305</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -32436,7 +32297,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1515</v>
+        <v>1531</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -32452,7 +32313,7 @@
         <v>309</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1516</v>
+        <v>1532</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -32468,7 +32329,7 @@
         <v>311</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1517</v>
+        <v>1533</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -32484,7 +32345,7 @@
         <v>313</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1518</v>
+        <v>1534</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -32500,7 +32361,7 @@
         <v>315</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1519</v>
+        <v>1535</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -32516,7 +32377,7 @@
         <v>317</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1520</v>
+        <v>1536</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -32532,7 +32393,7 @@
         <v>319</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1521</v>
+        <v>1537</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -32548,7 +32409,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1522</v>
+        <v>1538</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -32580,7 +32441,7 @@
         <v>325</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>1523</v>
+        <v>1539</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -32596,7 +32457,7 @@
         <v>327</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1524</v>
+        <v>1540</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -32612,7 +32473,7 @@
         <v>329</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1525</v>
+        <v>1541</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -32628,7 +32489,7 @@
         <v>331</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1526</v>
+        <v>1542</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -32644,7 +32505,7 @@
         <v>333</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1527</v>
+        <v>1543</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -32660,7 +32521,7 @@
         <v>335</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1528</v>
+        <v>1544</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -32676,7 +32537,7 @@
         <v>337</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1529</v>
+        <v>1545</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -32692,7 +32553,7 @@
         <v>339</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>1530</v>
+        <v>1546</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -32708,7 +32569,7 @@
         <v>341</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1531</v>
+        <v>1547</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -32724,7 +32585,7 @@
         <v>343</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>1532</v>
+        <v>1548</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -32740,7 +32601,7 @@
         <v>345</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -32756,7 +32617,7 @@
         <v>347</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>1534</v>
+        <v>1550</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -32772,7 +32633,7 @@
         <v>349</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1535</v>
+        <v>1551</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -32788,7 +32649,7 @@
         <v>351</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1536</v>
+        <v>1552</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -32804,7 +32665,7 @@
         <v>353</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1537</v>
+        <v>1553</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -32820,7 +32681,7 @@
         <v>355</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1538</v>
+        <v>1554</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -32836,7 +32697,7 @@
         <v>357</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1539</v>
+        <v>1555</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -32852,7 +32713,7 @@
         <v>359</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1540</v>
+        <v>1556</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -32868,7 +32729,7 @@
         <v>361</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1541</v>
+        <v>1557</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -32884,7 +32745,7 @@
         <v>363</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1542</v>
+        <v>1558</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -32900,7 +32761,7 @@
         <v>365</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1543</v>
+        <v>1559</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -32916,7 +32777,7 @@
         <v>367</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -32932,7 +32793,7 @@
         <v>369</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1545</v>
+        <v>1561</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -32948,7 +32809,7 @@
         <v>371</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1546</v>
+        <v>1562</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -32964,7 +32825,7 @@
         <v>373</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -32980,7 +32841,7 @@
         <v>375</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -32996,7 +32857,7 @@
         <v>377</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -33012,7 +32873,7 @@
         <v>378</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1549</v>
+        <v>1565</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -33028,7 +32889,7 @@
         <v>380</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1550</v>
+        <v>1566</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -33044,7 +32905,7 @@
         <v>382</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1550</v>
+        <v>1566</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -33082,7 +32943,7 @@
         <v>383</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -33096,7 +32957,7 @@
         <v>385</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>1552</v>
+        <v>1568</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -33110,7 +32971,7 @@
         <v>387</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>1553</v>
+        <v>1569</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -33124,7 +32985,7 @@
         <v>389</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>1554</v>
+        <v>1570</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -33138,7 +32999,7 @@
         <v>391</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -33152,7 +33013,7 @@
         <v>393</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>1556</v>
+        <v>1572</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -33166,7 +33027,7 @@
         <v>395</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>1557</v>
+        <v>1573</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -33180,7 +33041,7 @@
         <v>397</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>1558</v>
+        <v>1574</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -33194,7 +33055,7 @@
         <v>399</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>1559</v>
+        <v>1575</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -33208,7 +33069,7 @@
         <v>401</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -33222,7 +33083,7 @@
         <v>403</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>1561</v>
+        <v>1577</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -33236,7 +33097,7 @@
         <v>405</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>1562</v>
+        <v>1578</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -33250,7 +33111,7 @@
         <v>407</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>1563</v>
+        <v>1579</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -33264,7 +33125,7 @@
         <v>409</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -33278,7 +33139,7 @@
         <v>411</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>1565</v>
+        <v>1581</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -33292,7 +33153,7 @@
         <v>382</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>1550</v>
+        <v>1566</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -35251,8 +35112,8 @@
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12" customHeight="1" outlineLevelCol="1"/>
@@ -35263,10 +35124,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:2">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="249" t="s">
         <v>1</v>
       </c>
     </row>
@@ -35282,7 +35143,7 @@
       <c r="A3" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35290,7 +35151,7 @@
       <c r="A4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35330,7 +35191,7 @@
       <c r="A9" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35338,7 +35199,7 @@
       <c r="A10" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35346,7 +35207,7 @@
       <c r="A11" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35378,7 +35239,7 @@
       <c r="A15" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35426,7 +35287,7 @@
       <c r="A21" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="251" t="s">
+      <c r="B21" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35439,10 +35300,10 @@
       </c>
     </row>
     <row r="23" ht="143.1" customHeight="1" spans="1:2">
-      <c r="A23" s="252" t="s">
+      <c r="A23" s="251" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="252" t="s">
+      <c r="B23" s="251" t="s">
         <v>206</v>
       </c>
     </row>
@@ -35474,7 +35335,7 @@
       <c r="A27" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="250" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35498,7 +35359,7 @@
       <c r="A30" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="252" t="s">
         <v>219</v>
       </c>
     </row>
@@ -35522,7 +35383,7 @@
       <c r="A33" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="251" t="s">
+      <c r="B33" s="250" t="s">
         <v>224</v>
       </c>
     </row>
@@ -35530,7 +35391,7 @@
       <c r="A34" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="251" t="s">
+      <c r="B34" s="250" t="s">
         <v>226</v>
       </c>
     </row>
@@ -35554,7 +35415,7 @@
       <c r="A37" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="251" t="s">
+      <c r="B37" s="250" t="s">
         <v>220</v>
       </c>
     </row>
@@ -35610,7 +35471,7 @@
       <c r="A44" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="250" t="s">
         <v>220</v>
       </c>
     </row>
@@ -35674,7 +35535,7 @@
       <c r="A52" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="251" t="s">
+      <c r="B52" s="250" t="s">
         <v>220</v>
       </c>
     </row>
@@ -35698,7 +35559,7 @@
       <c r="A55" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="251" t="s">
+      <c r="B55" s="250" t="s">
         <v>220</v>
       </c>
     </row>
@@ -35706,7 +35567,7 @@
       <c r="A56" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="B56" s="251" t="s">
+      <c r="B56" s="250" t="s">
         <v>262</v>
       </c>
     </row>
@@ -35714,7 +35575,7 @@
       <c r="A57" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="251" t="s">
+      <c r="B57" s="250" t="s">
         <v>262</v>
       </c>
     </row>
@@ -35866,7 +35727,7 @@
       <c r="A76" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="251" t="s">
+      <c r="B76" s="250" t="s">
         <v>276</v>
       </c>
     </row>
@@ -35882,7 +35743,7 @@
       <c r="A78" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="B78" s="251" t="s">
+      <c r="B78" s="250" t="s">
         <v>276</v>
       </c>
     </row>
@@ -36212,7 +36073,7 @@
       <c r="A38" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="B38" s="249" t="s">
+      <c r="B38" s="246" t="s">
         <v>376</v>
       </c>
     </row>
@@ -36220,7 +36081,7 @@
       <c r="A39" s="244" t="s">
         <v>377</v>
       </c>
-      <c r="B39" s="249" t="s">
+      <c r="B39" s="246" t="s">
         <v>376</v>
       </c>
     </row>
@@ -36392,8 +36253,8 @@
   </sheetPr>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -36470,7 +36331,7 @@
       <c r="A9" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="241" t="s">
         <v>427</v>
       </c>
     </row>
@@ -36510,7 +36371,7 @@
       <c r="A14" s="105" t="s">
         <v>435</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="241" t="s">
         <v>436</v>
       </c>
     </row>
@@ -36630,7 +36491,7 @@
       <c r="A29" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="241" t="s">
         <v>464</v>
       </c>
     </row>
@@ -36638,7 +36499,7 @@
       <c r="A30" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="241" t="s">
         <v>466</v>
       </c>
     </row>
@@ -36646,7 +36507,7 @@
       <c r="A31" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="241" t="s">
         <v>468</v>
       </c>
     </row>
@@ -36662,7 +36523,7 @@
       <c r="A33" s="105" t="s">
         <v>471</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="241" t="s">
         <v>472</v>
       </c>
     </row>
@@ -36670,7 +36531,7 @@
       <c r="A34" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="241" t="s">
         <v>474</v>
       </c>
     </row>
@@ -36774,7 +36635,7 @@
       <c r="A47" s="105" t="s">
         <v>495</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="242" t="s">
         <v>414</v>
       </c>
     </row>
@@ -36854,7 +36715,7 @@
       <c r="A57" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="B57" s="105" t="s">
+      <c r="B57" s="241" t="s">
         <v>513</v>
       </c>
     </row>
@@ -36870,7 +36731,7 @@
       <c r="A59" s="105" t="s">
         <v>515</v>
       </c>
-      <c r="B59" s="105" t="s">
+      <c r="B59" s="241" t="s">
         <v>466</v>
       </c>
     </row>
@@ -36886,7 +36747,7 @@
       <c r="A61" s="105" t="s">
         <v>518</v>
       </c>
-      <c r="B61" s="105" t="s">
+      <c r="B61" s="241" t="s">
         <v>464</v>
       </c>
     </row>
@@ -36902,7 +36763,7 @@
       <c r="A63" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="241" t="s">
         <v>522</v>
       </c>
     </row>
